--- a/instance/zyjk/swagger/ecg.xlsx
+++ b/instance/zyjk/swagger/ecg.xlsx
@@ -59,29 +59,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -93,24 +72,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -480,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -492,1091 +453,1127 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="40" customWidth="1" min="7" max="7"/>
-    <col width="70" customWidth="1" min="8" max="8"/>
+    <col width="80" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="12" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>tags</t>
         </is>
       </c>
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>paths</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="E1" s="12" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>consumes</t>
         </is>
       </c>
-      <c r="F1" s="12" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>query</t>
         </is>
       </c>
-      <c r="G1" s="12" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>body</t>
         </is>
       </c>
-      <c r="H1" s="12" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>parameters [参数名称，参数说明，请求类型，是否必须，数据类型，schema]</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>随访模块接口</t>
         </is>
       </c>
-      <c r="B2" s="11" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>获取app端患者对应的随访信息</t>
         </is>
       </c>
-      <c r="C2" s="11" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>/ecg/ecgFollowInfo/selectPIdByRemindMsg</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>随访模块接口</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>更新患者为已读状态</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>/ecg/ecgFollowInfo/updatePatientRemind</t>
         </is>
       </c>
-      <c r="D3" s="11" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E3" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F3" s="11" t="inlineStr"/>
-      <c r="G3" s="11" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr"/>
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>{"hospitalName": "", "id": 0, "isRead": 0, "remindCount": 0, "remindTime": ""}</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>患者项目关系表接口</t>
         </is>
       </c>
-      <c r="B4" s="11" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C4" s="11" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>/ecg/ecgPatientItemRelation/create</t>
         </is>
       </c>
-      <c r="D4" s="11" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F4" s="11" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>createId={integer}&amp;createTime={string}&amp;empId={string}&amp;id={integer}&amp;isDelete={integer}&amp;itemId={integer}&amp;updateId={integer}&amp;updateTime={string}</t>
         </is>
       </c>
-      <c r="H4" s="11" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'createId', 'in': 'query', 'description': '创建者ID', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'createTime', 'in': 'query', 'description': '创建时间', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'empId', 'in': 'query', 'description': '患者empId（对应患者信息表中的empId）', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'description': '主键', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isDelete', 'in': 'query', 'description': '是否删除', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'itemId', 'in': 'query', 'description': '项目id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateId', 'in': 'query', 'description': '编辑者ID', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateTime', 'in': 'query', 'description': '编辑时间', 'required': False, 'type': 'string', 'format': 'date-time'}]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>患者项目关系表接口</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>删除</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>/ecg/ecgPatientItemRelation/delete/{id}</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F5" s="11" t="inlineStr"/>
-      <c r="H5" s="11" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr"/>
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>患者项目关系表接口</t>
         </is>
       </c>
-      <c r="B6" s="11" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>分页查询</t>
         </is>
       </c>
-      <c r="C6" s="11" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>/ecg/ecgPatientItemRelation/page</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="H6" s="11" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>患者项目关系表接口</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>通过ID获取一条数据</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>/ecg/ecgPatientItemRelation/read/{id}</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F7" s="11" t="inlineStr"/>
-      <c r="H7" s="11" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>患者项目关系表接口</t>
         </is>
       </c>
-      <c r="B8" s="11" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>/ecg/ecgPatientItemRelation/update</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E8" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F8" s="11" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>createId={integer}&amp;createTime={string}&amp;empId={string}&amp;id={integer}&amp;isDelete={integer}&amp;itemId={integer}&amp;updateId={integer}&amp;updateTime={string}</t>
         </is>
       </c>
-      <c r="H8" s="11" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'createId', 'in': 'query', 'description': '创建者ID', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'createTime', 'in': 'query', 'description': '创建时间', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'empId', 'in': 'query', 'description': '患者empId（对应患者信息表中的empId）', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'description': '主键', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isDelete', 'in': 'query', 'description': '是否删除', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'itemId', 'in': 'query', 'description': '项目id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateId', 'in': 'query', 'description': '编辑者ID', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateTime', 'in': 'query', 'description': '编辑时间', 'required': False, 'type': 'string', 'format': 'date-time'}]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>test1测试用表</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>/ecg/genTest1/create</t>
         </is>
       </c>
-      <c r="D9" s="11" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F9" s="11" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>id={integer}&amp;testName={string}</t>
         </is>
       </c>
-      <c r="H9" s="11" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段值', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>test1测试用表</t>
         </is>
       </c>
-      <c r="B10" s="11" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>删除</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>/ecg/genTest1/delete/{id}</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F10" s="11" t="inlineStr"/>
-      <c r="H10" s="11" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr"/>
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>test1测试用表</t>
         </is>
       </c>
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>分页查询</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>/ecg/genTest1/page</t>
         </is>
       </c>
-      <c r="D11" s="11" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="H11" s="11" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>test1测试用表</t>
         </is>
       </c>
-      <c r="B12" s="11" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>通过ID获取一条数据</t>
         </is>
       </c>
-      <c r="C12" s="11" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
         <is>
           <t>/ecg/genTest1/read/{id}</t>
         </is>
       </c>
-      <c r="D12" s="11" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F12" s="11" t="inlineStr"/>
-      <c r="H12" s="11" t="inlineStr">
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="inlineStr"/>
+      <c r="G12" s="4" t="n"/>
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>test1测试用表</t>
         </is>
       </c>
-      <c r="B13" s="11" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>/ecg/genTest1/update</t>
         </is>
       </c>
-      <c r="D13" s="11" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E13" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F13" s="11" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
         <is>
           <t>id={integer}&amp;testName={string}</t>
         </is>
       </c>
-      <c r="H13" s="11" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段值', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="inlineStr">
+      <c r="A14" s="4" t="inlineStr">
         <is>
           <t>测试用表2</t>
         </is>
       </c>
-      <c r="B14" s="11" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C14" s="11" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>/ecg/genTest2/create</t>
         </is>
       </c>
-      <c r="D14" s="11" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E14" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F14" s="11" t="inlineStr">
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>id={integer}&amp;testName={string}</t>
         </is>
       </c>
-      <c r="H14" s="11" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段名', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>测试用表2</t>
         </is>
       </c>
-      <c r="B15" s="11" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>删除</t>
         </is>
       </c>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>/ecg/genTest2/delete/{id}</t>
         </is>
       </c>
-      <c r="D15" s="11" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F15" s="11" t="inlineStr"/>
-      <c r="H15" s="11" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>测试用表2</t>
         </is>
       </c>
-      <c r="B16" s="11" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>分页查询</t>
         </is>
       </c>
-      <c r="C16" s="11" t="inlineStr">
+      <c r="C16" s="4" t="inlineStr">
         <is>
           <t>/ecg/genTest2/page</t>
         </is>
       </c>
-      <c r="D16" s="11" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="H16" s="11" t="inlineStr">
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>测试用表2</t>
         </is>
       </c>
-      <c r="B17" s="11" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>通过ID获取一条数据</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="C17" s="4" t="inlineStr">
         <is>
           <t>/ecg/genTest2/read/{id}</t>
         </is>
       </c>
-      <c r="D17" s="11" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F17" s="11" t="inlineStr"/>
-      <c r="H17" s="11" t="inlineStr">
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>测试用表2</t>
         </is>
       </c>
-      <c r="B18" s="11" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="C18" s="11" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>/ecg/genTest2/update</t>
         </is>
       </c>
-      <c r="D18" s="11" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E18" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F18" s="11" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>id={integer}&amp;testName={string}</t>
         </is>
       </c>
-      <c r="H18" s="11" t="inlineStr">
+      <c r="H18" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'query', 'description': '主健id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'testName', 'in': 'query', 'description': '测试字段名', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>心电报告表接口</t>
         </is>
       </c>
-      <c r="B19" s="11" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>手机端查看当前登陆人心电报告</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>/ecg/report/mobileTerminalGetReport</t>
         </is>
       </c>
-      <c r="D19" s="11" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="inlineStr">
+      <c r="A20" s="4" t="inlineStr">
         <is>
           <t>心电报告表接口</t>
         </is>
       </c>
-      <c r="B20" s="11" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>同步心电报告</t>
         </is>
       </c>
-      <c r="C20" s="11" t="inlineStr">
+      <c r="C20" s="4" t="inlineStr">
         <is>
           <t>/ecg/report/transEcgReport</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E20" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F20" s="11" t="inlineStr"/>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>患者、账号关系表接口</t>
         </is>
       </c>
-      <c r="B21" s="11" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>绑定用户</t>
         </is>
       </c>
-      <c r="C21" s="11" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>/ecg/tBandingWxRelation/bandingPatient</t>
         </is>
       </c>
-      <c r="D21" s="11" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E21" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F21" s="11" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
         <is>
           <t>healthCardNo={*string}&amp;name={*string}</t>
         </is>
       </c>
-      <c r="H21" s="11" t="inlineStr">
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'healthCardNo', 'in': 'query', 'description': 'healthCardNo', 'required': True, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': 'name', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
         <is>
           <t>患者、账号关系表接口</t>
         </is>
       </c>
-      <c r="B22" s="11" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>撤销绑定</t>
         </is>
       </c>
-      <c r="C22" s="11" t="inlineStr">
+      <c r="C22" s="4" t="inlineStr">
         <is>
           <t>/ecg/tBandingWxRelation/cancelBanding</t>
         </is>
       </c>
-      <c r="D22" s="11" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E22" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F22" s="11" t="inlineStr">
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
         <is>
           <t>empiId={string}</t>
         </is>
       </c>
-      <c r="H22" s="11" t="inlineStr">
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'empiId', 'in': 'query', 'description': 'ecg用户id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>患者、账号关系表接口</t>
         </is>
       </c>
-      <c r="B23" s="11" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>获取动态验证码</t>
         </is>
       </c>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>/ecg/tBandingWxRelation/getMsgCode</t>
         </is>
       </c>
-      <c r="D23" s="11" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F23" s="11" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
         <is>
           <t>phone={*string}</t>
         </is>
       </c>
-      <c r="H23" s="11" t="inlineStr">
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'phone', 'in': 'query', 'description': '手机号码', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>患者、账号关系表接口</t>
         </is>
       </c>
-      <c r="B24" s="11" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>根据身份证和姓名查询患者</t>
         </is>
       </c>
-      <c r="C24" s="11" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>/ecg/tBandingWxRelation/getPatientByRule</t>
         </is>
       </c>
-      <c r="D24" s="11" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F24" s="11" t="inlineStr">
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>healthCardNo={string}&amp;name={string}</t>
         </is>
       </c>
-      <c r="H24" s="11" t="inlineStr">
+      <c r="H24" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'healthCardNo', 'in': 'query', 'description': '健康卡号', 'required': False, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '姓名', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>患者、账号关系表接口</t>
         </is>
       </c>
-      <c r="B25" s="11" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>通过手机验证码查询绑定患者信息</t>
         </is>
       </c>
-      <c r="C25" s="11" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>/ecg/tBandingWxRelation/getPatientByRuleAndPhoneCode</t>
         </is>
       </c>
-      <c r="D25" s="11" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F25" s="11" t="inlineStr">
+      <c r="F25" s="4" t="inlineStr">
         <is>
           <t>code={*string}&amp;healthCardNo={*string}&amp;name={*string}&amp;phoneNumber={*string}</t>
         </is>
       </c>
-      <c r="H25" s="11" t="inlineStr">
+      <c r="H25" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'code', 'in': 'query', 'description': '验证码', 'required': True, 'type': 'string'}, {'name': 'healthCardNo', 'in': 'query', 'description': '健康卡号', 'required': True, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '姓名', 'required': True, 'type': 'string'}, {'name': 'phoneNumber', 'in': 'query', 'description': '手机号码', 'required': True, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="inlineStr">
+      <c r="A26" s="4" t="inlineStr">
         <is>
           <t>患者、账号关系表接口</t>
         </is>
       </c>
-      <c r="B26" s="11" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>是否绑定绑定用户</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr">
+      <c r="C26" s="4" t="inlineStr">
         <is>
           <t>/ecg/tBandingWxRelation/isBanding</t>
         </is>
       </c>
-      <c r="D26" s="11" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E26" s="11" t="inlineStr">
+      <c r="E26" s="4" t="inlineStr">
         <is>
           <t>application/json</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>医生短信服务信息表接口</t>
         </is>
       </c>
-      <c r="B27" s="11" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>发送异常心电短信通知</t>
         </is>
       </c>
-      <c r="C27" s="11" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>/ecg/tDocMsgInfo/sendNoticeMsg</t>
         </is>
       </c>
-      <c r="D27" s="11" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E27" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F27" s="11" t="inlineStr"/>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="inlineStr">
+      <c r="A28" s="4" t="inlineStr">
         <is>
           <t>心电异常提醒接口</t>
         </is>
       </c>
-      <c r="B28" s="11" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>保存异常心电报告数据到云服务</t>
         </is>
       </c>
-      <c r="C28" s="11" t="inlineStr">
+      <c r="C28" s="4" t="inlineStr">
         <is>
           <t>/ecg/tEcgRemindInfo/saveAbnormalReport</t>
         </is>
       </c>
-      <c r="D28" s="11" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E28" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F28" s="11" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>接口</t>
-        </is>
-      </c>
-      <c r="B29" s="11" t="inlineStr">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>短信记录接口</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>添加待发送短信记录</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>/ecg/tMsgRecord/addTMsgRecord</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>{"customerID": "", "customerName": "", "customerType": "", "id": 0, "isMail": 0, "message": "", "remindId": 0, "srvType": "", "tel": ""}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>短信记录接口</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>定时获取短信通知记录</t>
         </is>
       </c>
-      <c r="C29" s="11" t="inlineStr">
+      <c r="C30" s="4" t="inlineStr">
         <is>
           <t>/ecg/tMsgRecord/recordList</t>
         </is>
       </c>
-      <c r="D29" s="11" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E29" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F29" s="11" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>接口</t>
-        </is>
-      </c>
-      <c r="B30" s="11" t="inlineStr">
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>短信记录接口</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>更新短信记录状态</t>
         </is>
       </c>
-      <c r="C30" s="11" t="inlineStr">
+      <c r="C31" s="4" t="inlineStr">
         <is>
           <t>/ecg/tMsgRecord/recordStatus</t>
         </is>
       </c>
-      <c r="D30" s="11" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E30" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F30" s="11" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B31" s="11" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>新增</t>
         </is>
       </c>
-      <c r="C31" s="11" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>/ecg/tPatientInfo/create</t>
         </is>
       </c>
-      <c r="D31" s="11" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>post</t>
         </is>
       </c>
-      <c r="E31" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F31" s="11" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>EMail={string}&amp;PIdCard={string}&amp;accCode={string}&amp;addr={string}&amp;age={string}&amp;birthCity={string}&amp;birthDistrict={string}&amp;birthPlace={string}&amp;birthProvince={string}&amp;birthday={string}&amp;bloodType={string}&amp;cardNo={string}&amp;cardType={integer}&amp;cellphone={string}&amp;city={string}&amp;contactName={string}&amp;country={string}&amp;createIdEcg={integer}&amp;createTimeEcg={string}&amp;deathDate={string}&amp;deathIdentifier={integer}&amp;district={string}&amp;docId={string}&amp;education={string}&amp;empiId={string}&amp;externalNo={string}&amp;firmAddr={string}&amp;firmCity={string}&amp;firmDistrict={string}&amp;firmName={string}&amp;firmPhone={string}&amp;firmPostalCode={string}&amp;firmProvince={string}&amp;firstName={string}&amp;firstVisitDate={string}&amp;followPlanId={integer}&amp;followUpName={string}&amp;healthCardNo={string}&amp;height={string}&amp;id={integer}&amp;idCardNo={string}&amp;infoSource={string}&amp;inputCode1={string}&amp;inputCode2={string}&amp;isDeleteEcg={integer}&amp;isMerged={integer}&amp;isSplited={integer}&amp;itemId={integer}&amp;job={string}&amp;language={string}&amp;lastName={string}&amp;marriage={string}&amp;medicare={string}&amp;name={string}&amp;nation={string}&amp;nativeCity={string}&amp;nativeProvince={string}&amp;nowAddr={string}&amp;nowCity={string}&amp;nowDistrict={string}&amp;nowPostalCode={string}&amp;nowProvince={string}&amp;personalPreference={string}&amp;phone={string}&amp;province={string}&amp;recentVisitDate={string}&amp;registerAddr={string}&amp;registerCity={string}&amp;registerDistrict={string}&amp;registerPostalCode={string}&amp;registerProvince={string}&amp;relation={string}&amp;religion={string}&amp;remark={string}&amp;secrecyLevel={string}&amp;sex={integer}&amp;sexStr={string}&amp;telephone={string}&amp;updateIdEcg={integer}&amp;updateTimeEcg={string}&amp;versionsId={integer}&amp;weight={string}</t>
         </is>
       </c>
-      <c r="H31" s="11" t="inlineStr">
+      <c r="H32" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'EMail', 'in': 'query', 'required': False, 'type': 'string'}, {'name': 'PIdCard', 'in': 'query', 'required': False, 'type': 'string'}, {'name': 'accCode', 'in': 'query', 'description': '付费类型', 'required': False, 'type': 'string'}, {'name': 'addr', 'in': 'query', 'description': '具体地址', 'required': False, 'type': 'string'}, {'name': 'age', 'in': 'query', 'description': '年龄', 'required': False, 'type': 'string'}, {'name': 'birthCity', 'in': 'query', 'description': '出生地市', 'required': False, 'type': 'string'}, {'name': 'birthDistrict', 'in': 'query', 'description': '出生地区县', 'required': False, 'type': 'string'}, {'name': 'birthPlace', 'in': 'query', 'description': '出生地', 'required': False, 'type': 'string'}, {'name': 'birthProvince', 'in': 'query', 'description': '出生地州省', 'required': False, 'type': 'string'}, {'name': 'birthday', 'in': 'query', 'description': '出生日期', 'required': False, 'type': 'string'}, {'name': 'bloodType', 'in': 'query', 'description': '血型', 'required': False, 'type': 'string'}, {'name': 'cardNo', 'in': 'query', 'description': '卡号', 'required': False, 'type': 'string'}, {'name': 'cardType', 'in': 'query', 'description': '卡类型', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'cellphone', 'in': 'query', 'description': '手机', 'required': False, 'type': 'string'}, {'name': 'city', 'in': 'query', 'description': '市', 'required': False, 'type': 'string'}, {'name': 'contactName', 'in': 'query', 'description': '联系姓名', 'required': False, 'type': 'string'}, {'name': 'country', 'in': 'query', 'description': '国家', 'required': False, 'type': 'string'}, {'name': 'createIdEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'createTimeEcg', 'in': 'query', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'deathDate', 'in': 'query', 'description': '死亡日期', 'required': False, 'type': 'string'}, {'name': 'deathIdentifier', 'in': 'query', 'description': '死亡标识符', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'district', 'in': 'query', 'description': '区县', 'required': False, 'type': 'string'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'string'}, {'name': 'education', 'in': 'query', 'description': '学历', 'required': False, 'type': 'string'}, {'name': 'empiId', 'in': 'query', 'description': 'EMPI索引', 'required': False, 'type': 'string'}, {'name': 'externalNo', 'in': 'query', 'description': '外部编号', 'required': False, 'type': 'string'}, {'name': 'firmAddr', 'in': 'query', 'description': '单位具体地址', 'required': False, 'type': 'string'}, {'name': 'firmCity', 'in': 'query', 'description': '单位市', 'required': False, 'type': 'string'}, {'name': 'firmDistrict', 'in': 'query', 'description': '单位区县', 'required': False, 'type': 'string'}, {'name': 'firmName', 'in': 'query', 'description': '单位名称', 'required': False, 'type': 'string'}, {'name': 'firmPhone', 'in': 'query', 'description': '单位电话', 'required': False, 'type': 'string'}, {'name': 'firmPostalCode', 'in': 'query', 'description': '单位邮政编码', 'required': False, 'type': 'string'}, {'name': 'firmProvince', 'in': 'query', 'description': '单位州省', 'required': False, 'type': 'string'}, {'name': 'firstName', 'in': 'query', 'description': '名', 'required': False, 'type': 'string'}, {'name': 'firstVisitDate', 'in': 'query', 'description': '首次就诊日期', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'followPlanId', 'in': 'query', 'description': '用于前端放入随访方案id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'followUpName', 'in': 'query', 'description': '用于前端放入随访方案名称', 'required': False, 'type': 'string'}, {'name': 'healthCardNo', 'in': 'query', 'description': '健康卡号', 'required': False, 'type': 'string'}, {'name': 'height', 'in': 'query', 'description': '身高', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'description': '主键id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'idCardNo', 'in': 'query', 'description': '身份证号', 'required': False, 'type': 'string'}, {'name': 'infoSource', 'in': 'query', 'description': '信息来源', 'required': False, 'type': 'string'}, {'name': 'inputCode1', 'in': 'query', 'description': '输入码1', 'required': False, 'type': 'string'}, {'name': 'inputCode2', 'in': 'query', 'description': '输入码2', 'required': False, 'type': 'string'}, {'name': 'isDeleteEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isMerged', 'in': 'query', 'description': '是否有合并纪录', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isSplited', 'in': 'query', 'description': '是否有拆分纪录', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'itemId', 'in': 'query', 'description': '用于前端放入项目id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'job', 'in': 'query', 'description': '职业', 'required': False, 'type': 'string'}, {'name': 'language', 'in': 'query', 'description': '语言', 'required': False, 'type': 'string'}, {'name': 'lastName', 'in': 'query', 'description': '姓', 'required': False, 'type': 'string'}, {'name': 'marriage', 'in': 'query', 'description': '婚姻', 'required': False, 'type': 'string'}, {'name': 'medicare', 'in': 'query', 'description': '医保卡号', 'required': False, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '姓名', 'required': False, 'type': 'string'}, {'name': 'nation', 'in': 'query', 'description': '民族', 'required': False, 'type': 'string'}, {'name': 'nativeCity', 'in': 'query', 'description': '籍贯市', 'required': False, 'type': 'string'}, {'name': 'nativeProvince', 'in': 'query', 'description': '籍贯省', 'required': False, 'type': 'string'}, {'name': 'nowAddr', 'in': 'query', 'description': '现住址具体地址', 'required': False, 'type': 'string'}, {'name': 'nowCity', 'in': 'query', 'description': '现住址市', 'required': False, 'type': 'string'}, {'name': 'nowDistrict', 'in': 'query', 'description': '现住址区县', 'required': False, 'type': 'string'}, {'name': 'nowPostalCode', 'in': 'query', 'description': '现住址邮政编码', 'required': False, 'type': 'string'}, {'name': 'nowProvince', 'in': 'query', 'description': '现住址州省', 'required': False, 'type': 'string'}, {'name': 'personalPreference', 'in': 'query', 'description': '个人偏好', 'required': False, 'type': 'string'}, {'name': 'phone', 'in': 'query', 'description': '电话', 'required': False, 'type': 'string'}, {'name': 'province', 'in': 'query', 'description': '州省', 'required': False, 'type': 'string'}, {'name': 'recentVisitDate', 'in': 'query', 'description': '最近就诊日期', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'registerAddr', 'in': 'query', 'description': '户口具体地址', 'required': False, 'type': 'string'}, {'name': 'registerCity', 'in': 'query', 'description': '户口市', 'required': False, 'type': 'string'}, {'name': 'registerDistrict', 'in': 'query', 'description': '户口区县', 'required': False, 'type': 'string'}, {'name': 'registerPostalCode', 'in': 'query', 'description': '户口邮政编码', 'required': False, 'type': 'string'}, {'name': 'registerProvince', 'in': 'query', 'description': '户口州省', 'required': False, 'type': 'string'}, {'name': 'relation', 'in': 'query', 'description': '联系关系', 'required': False, 'type': 'string'}, {'name': 'religion', 'in': 'query', 'description': '宗教信仰', 'required': False, 'type': 'string'}, {'name': 'remark', 'in': 'query', 'description': '备注', 'required': False, 'type': 'string'}, {'name': 'secrecyLevel', 'in': 'query', 'description': '保密级别', 'required': False, 'type': 'string'}, {'name': 'sex', 'in': 'query', 'description': '性别', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'sexStr', 'in': 'query', 'description': '性别字符串', 'required': False, 'type': 'string'}, {'name': 'telephone', 'in': 'query', 'description': '联系电话', 'required': False, 'type': 'string'}, {'name': 'updateIdEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateTimeEcg', 'in': 'query', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'versionsId', 'in': 'query', 'description': '用于前端放入版本id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'weight', 'in': 'query', 'description': '体重', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
         <is>
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B32" s="11" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>删除</t>
         </is>
       </c>
-      <c r="C32" s="11" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
         <is>
           <t>/ecg/tPatientInfo/delete/{id}</t>
         </is>
       </c>
-      <c r="D32" s="11" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="F32" s="11" t="inlineStr"/>
-      <c r="H32" s="11" t="inlineStr">
+      <c r="F33" s="4" t="inlineStr"/>
+      <c r="H33" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B33" s="11" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>分页查询</t>
         </is>
       </c>
-      <c r="C33" s="11" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>/ecg/tPatientInfo/page</t>
         </is>
       </c>
-      <c r="D33" s="11" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="H33" s="11" t="inlineStr">
+      <c r="H34" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'currPage', 'description': '当前页', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}, {'name': 'pageSize', 'description': '每页显示数量', 'required': False, 'schema': {'type': 'integer', 'format': 'int32'}}]</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B34" s="11" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>通过ID获取一条数据</t>
         </is>
       </c>
-      <c r="C34" s="11" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>/ecg/tPatientInfo/read/{id}</t>
         </is>
       </c>
-      <c r="D34" s="11" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="F34" s="11" t="inlineStr"/>
-      <c r="H34" s="11" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr"/>
+      <c r="H35" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'id', 'in': 'path', 'description': '数据对象id', 'required': False, 'type': 'string'}]</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="4" t="inlineStr">
         <is>
           <t>患者信息表接口</t>
         </is>
       </c>
-      <c r="B35" s="11" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>更新</t>
         </is>
       </c>
-      <c r="C35" s="11" t="inlineStr">
+      <c r="C36" s="4" t="inlineStr">
         <is>
           <t>/ecg/tPatientInfo/update</t>
         </is>
       </c>
-      <c r="D35" s="11" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>put</t>
         </is>
       </c>
-      <c r="E35" s="11" t="inlineStr">
-        <is>
-          <t>application/json</t>
-        </is>
-      </c>
-      <c r="F35" s="11" t="inlineStr">
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>application/json</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
         <is>
           <t>EMail={string}&amp;PIdCard={string}&amp;accCode={string}&amp;addr={string}&amp;age={string}&amp;birthCity={string}&amp;birthDistrict={string}&amp;birthPlace={string}&amp;birthProvince={string}&amp;birthday={string}&amp;bloodType={string}&amp;cardNo={string}&amp;cardType={integer}&amp;cellphone={string}&amp;city={string}&amp;contactName={string}&amp;country={string}&amp;createIdEcg={integer}&amp;createTimeEcg={string}&amp;deathDate={string}&amp;deathIdentifier={integer}&amp;district={string}&amp;docId={string}&amp;education={string}&amp;empiId={string}&amp;externalNo={string}&amp;firmAddr={string}&amp;firmCity={string}&amp;firmDistrict={string}&amp;firmName={string}&amp;firmPhone={string}&amp;firmPostalCode={string}&amp;firmProvince={string}&amp;firstName={string}&amp;firstVisitDate={string}&amp;followPlanId={integer}&amp;followUpName={string}&amp;healthCardNo={string}&amp;height={string}&amp;id={integer}&amp;idCardNo={string}&amp;infoSource={string}&amp;inputCode1={string}&amp;inputCode2={string}&amp;isDeleteEcg={integer}&amp;isMerged={integer}&amp;isSplited={integer}&amp;itemId={integer}&amp;job={string}&amp;language={string}&amp;lastName={string}&amp;marriage={string}&amp;medicare={string}&amp;name={string}&amp;nation={string}&amp;nativeCity={string}&amp;nativeProvince={string}&amp;nowAddr={string}&amp;nowCity={string}&amp;nowDistrict={string}&amp;nowPostalCode={string}&amp;nowProvince={string}&amp;personalPreference={string}&amp;phone={string}&amp;province={string}&amp;recentVisitDate={string}&amp;registerAddr={string}&amp;registerCity={string}&amp;registerDistrict={string}&amp;registerPostalCode={string}&amp;registerProvince={string}&amp;relation={string}&amp;religion={string}&amp;remark={string}&amp;secrecyLevel={string}&amp;sex={integer}&amp;sexStr={string}&amp;telephone={string}&amp;updateIdEcg={integer}&amp;updateTimeEcg={string}&amp;versionsId={integer}&amp;weight={string}</t>
         </is>
       </c>
-      <c r="H35" s="11" t="inlineStr">
+      <c r="H36" s="4" t="inlineStr">
         <is>
           <t>[{'name': 'EMail', 'in': 'query', 'required': False, 'type': 'string'}, {'name': 'PIdCard', 'in': 'query', 'required': False, 'type': 'string'}, {'name': 'accCode', 'in': 'query', 'description': '付费类型', 'required': False, 'type': 'string'}, {'name': 'addr', 'in': 'query', 'description': '具体地址', 'required': False, 'type': 'string'}, {'name': 'age', 'in': 'query', 'description': '年龄', 'required': False, 'type': 'string'}, {'name': 'birthCity', 'in': 'query', 'description': '出生地市', 'required': False, 'type': 'string'}, {'name': 'birthDistrict', 'in': 'query', 'description': '出生地区县', 'required': False, 'type': 'string'}, {'name': 'birthPlace', 'in': 'query', 'description': '出生地', 'required': False, 'type': 'string'}, {'name': 'birthProvince', 'in': 'query', 'description': '出生地州省', 'required': False, 'type': 'string'}, {'name': 'birthday', 'in': 'query', 'description': '出生日期', 'required': False, 'type': 'string'}, {'name': 'bloodType', 'in': 'query', 'description': '血型', 'required': False, 'type': 'string'}, {'name': 'cardNo', 'in': 'query', 'description': '卡号', 'required': False, 'type': 'string'}, {'name': 'cardType', 'in': 'query', 'description': '卡类型', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'cellphone', 'in': 'query', 'description': '手机', 'required': False, 'type': 'string'}, {'name': 'city', 'in': 'query', 'description': '市', 'required': False, 'type': 'string'}, {'name': 'contactName', 'in': 'query', 'description': '联系姓名', 'required': False, 'type': 'string'}, {'name': 'country', 'in': 'query', 'description': '国家', 'required': False, 'type': 'string'}, {'name': 'createIdEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'createTimeEcg', 'in': 'query', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'deathDate', 'in': 'query', 'description': '死亡日期', 'required': False, 'type': 'string'}, {'name': 'deathIdentifier', 'in': 'query', 'description': '死亡标识符', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'district', 'in': 'query', 'description': '区县', 'required': False, 'type': 'string'}, {'name': 'docId', 'in': 'query', 'description': '医生id', 'required': False, 'type': 'string'}, {'name': 'education', 'in': 'query', 'description': '学历', 'required': False, 'type': 'string'}, {'name': 'empiId', 'in': 'query', 'description': 'EMPI索引', 'required': False, 'type': 'string'}, {'name': 'externalNo', 'in': 'query', 'description': '外部编号', 'required': False, 'type': 'string'}, {'name': 'firmAddr', 'in': 'query', 'description': '单位具体地址', 'required': False, 'type': 'string'}, {'name': 'firmCity', 'in': 'query', 'description': '单位市', 'required': False, 'type': 'string'}, {'name': 'firmDistrict', 'in': 'query', 'description': '单位区县', 'required': False, 'type': 'string'}, {'name': 'firmName', 'in': 'query', 'description': '单位名称', 'required': False, 'type': 'string'}, {'name': 'firmPhone', 'in': 'query', 'description': '单位电话', 'required': False, 'type': 'string'}, {'name': 'firmPostalCode', 'in': 'query', 'description': '单位邮政编码', 'required': False, 'type': 'string'}, {'name': 'firmProvince', 'in': 'query', 'description': '单位州省', 'required': False, 'type': 'string'}, {'name': 'firstName', 'in': 'query', 'description': '名', 'required': False, 'type': 'string'}, {'name': 'firstVisitDate', 'in': 'query', 'description': '首次就诊日期', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'followPlanId', 'in': 'query', 'description': '用于前端放入随访方案id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'followUpName', 'in': 'query', 'description': '用于前端放入随访方案名称', 'required': False, 'type': 'string'}, {'name': 'healthCardNo', 'in': 'query', 'description': '健康卡号', 'required': False, 'type': 'string'}, {'name': 'height', 'in': 'query', 'description': '身高', 'required': False, 'type': 'string'}, {'name': 'id', 'in': 'query', 'description': '主键id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'idCardNo', 'in': 'query', 'description': '身份证号', 'required': False, 'type': 'string'}, {'name': 'infoSource', 'in': 'query', 'description': '信息来源', 'required': False, 'type': 'string'}, {'name': 'inputCode1', 'in': 'query', 'description': '输入码1', 'required': False, 'type': 'string'}, {'name': 'inputCode2', 'in': 'query', 'description': '输入码2', 'required': False, 'type': 'string'}, {'name': 'isDeleteEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isMerged', 'in': 'query', 'description': '是否有合并纪录', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'isSplited', 'in': 'query', 'description': '是否有拆分纪录', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'itemId', 'in': 'query', 'description': '用于前端放入项目id', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'job', 'in': 'query', 'description': '职业', 'required': False, 'type': 'string'}, {'name': 'language', 'in': 'query', 'description': '语言', 'required': False, 'type': 'string'}, {'name': 'lastName', 'in': 'query', 'description': '姓', 'required': False, 'type': 'string'}, {'name': 'marriage', 'in': 'query', 'description': '婚姻', 'required': False, 'type': 'string'}, {'name': 'medicare', 'in': 'query', 'description': '医保卡号', 'required': False, 'type': 'string'}, {'name': 'name', 'in': 'query', 'description': '姓名', 'required': False, 'type': 'string'}, {'name': 'nation', 'in': 'query', 'description': '民族', 'required': False, 'type': 'string'}, {'name': 'nativeCity', 'in': 'query', 'description': '籍贯市', 'required': False, 'type': 'string'}, {'name': 'nativeProvince', 'in': 'query', 'description': '籍贯省', 'required': False, 'type': 'string'}, {'name': 'nowAddr', 'in': 'query', 'description': '现住址具体地址', 'required': False, 'type': 'string'}, {'name': 'nowCity', 'in': 'query', 'description': '现住址市', 'required': False, 'type': 'string'}, {'name': 'nowDistrict', 'in': 'query', 'description': '现住址区县', 'required': False, 'type': 'string'}, {'name': 'nowPostalCode', 'in': 'query', 'description': '现住址邮政编码', 'required': False, 'type': 'string'}, {'name': 'nowProvince', 'in': 'query', 'description': '现住址州省', 'required': False, 'type': 'string'}, {'name': 'personalPreference', 'in': 'query', 'description': '个人偏好', 'required': False, 'type': 'string'}, {'name': 'phone', 'in': 'query', 'description': '电话', 'required': False, 'type': 'string'}, {'name': 'province', 'in': 'query', 'description': '州省', 'required': False, 'type': 'string'}, {'name': 'recentVisitDate', 'in': 'query', 'description': '最近就诊日期', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'registerAddr', 'in': 'query', 'description': '户口具体地址', 'required': False, 'type': 'string'}, {'name': 'registerCity', 'in': 'query', 'description': '户口市', 'required': False, 'type': 'string'}, {'name': 'registerDistrict', 'in': 'query', 'description': '户口区县', 'required': False, 'type': 'string'}, {'name': 'registerPostalCode', 'in': 'query', 'description': '户口邮政编码', 'required': False, 'type': 'string'}, {'name': 'registerProvince', 'in': 'query', 'description': '户口州省', 'required': False, 'type': 'string'}, {'name': 'relation', 'in': 'query', 'description': '联系关系', 'required': False, 'type': 'string'}, {'name': 'religion', 'in': 'query', 'description': '宗教信仰', 'required': False, 'type': 'string'}, {'name': 'remark', 'in': 'query', 'description': '备注', 'required': False, 'type': 'string'}, {'name': 'secrecyLevel', 'in': 'query', 'description': '保密级别', 'required': False, 'type': 'string'}, {'name': 'sex', 'in': 'query', 'description': '性别', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'sexStr', 'in': 'query', 'description': '性别字符串', 'required': False, 'type': 'string'}, {'name': 'telephone', 'in': 'query', 'description': '联系电话', 'required': False, 'type': 'string'}, {'name': 'updateIdEcg', 'in': 'query', 'required': False, 'type': 'integer', 'format': 'int32'}, {'name': 'updateTimeEcg', 'in': 'query', 'required': False, 'type': 'string', 'format': 'date-time'}, {'name': 'versionsId', 'in': 'query', 'description': '用于前端放入版本id', 'required': False, 'type': 'integer', 'format': 'int64'}, {'name': 'weight', 'in': 'query', 'description': '体重', 'required': False, 'type': 'string'}]</t>
         </is>
